--- a/figure06_maps_10Be_model_data_antarctica/model_data_comp_mean_10Be_flux_data_holocene_final.xlsx
+++ b/figure06_maps_10Be_model_data_antarctica/model_data_comp_mean_10Be_flux_data_holocene_final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/acauquoin/Documents/Mes_manuscrits/10Be_Holocene_Antarctica/figures/figure06_maps_10Be_model_data_antarctica/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0293D97A-54B6-534A-A787-B023C7B4A289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224CC8CF-940E-D144-AA82-0C7564EC47AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="62240" yWindow="3660" windowWidth="27220" windowHeight="16440" xr2:uid="{E2820EBF-6D30-244A-9364-248DB28BA56B}"/>
+    <workbookView xWindow="9580" yWindow="3660" windowWidth="31560" windowHeight="16440" xr2:uid="{E2820EBF-6D30-244A-9364-248DB28BA56B}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Conc. obs.</t>
   </si>
@@ -67,9 +67,6 @@
     <t>WD</t>
   </si>
   <si>
-    <t>South Pole</t>
-  </si>
-  <si>
     <t>SPICE</t>
   </si>
   <si>
@@ -94,23 +91,20 @@
     <t>Dome A</t>
   </si>
   <si>
-    <t>Law Dome</t>
-  </si>
-  <si>
-    <t>Taylor Dome</t>
-  </si>
-  <si>
     <t>Site</t>
   </si>
   <si>
     <t>Flux obs</t>
+  </si>
+  <si>
+    <t>PS1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -133,16 +127,21 @@
     </font>
     <font>
       <sz val="8"/>
-      <color rgb="FF808080"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="6"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -153,7 +152,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -164,19 +163,8 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -187,6 +175,61 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -194,38 +237,78 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,589 +623,541 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88199E86-D6F1-1147-9B20-0D4FACF27928}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="11.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="10.83203125" style="5"/>
+    <col min="4" max="4" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="H1" s="7"/>
+      <c r="I1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>0.23799999999999999</v>
       </c>
-      <c r="C2" s="2">
-        <v>15.5</v>
-      </c>
-      <c r="D2" s="5">
-        <f>B2*C2*31.56</f>
-        <v>116.42484</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="C2" s="1">
+        <v>14.2</v>
+      </c>
+      <c r="D2" s="8">
+        <f>B2*100000*(C2/(365*24*3600)*10000)</f>
+        <v>107.16641298833079</v>
+      </c>
+      <c r="E2" s="15">
         <v>0.254</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>15.31</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>123.19</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="9">
         <f>G2/F2/E2</f>
         <v>31.678641410842587</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="18">
         <f>E2/B2</f>
         <v>1.0672268907563025</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="8">
         <f t="shared" ref="J2:K2" si="0">F2/C2</f>
-        <v>0.98774193548387101</v>
-      </c>
-      <c r="K2" s="5">
+        <v>1.078169014084507</v>
+      </c>
+      <c r="K2" s="21">
         <f t="shared" si="0"/>
-        <v>1.0581075310045518</v>
+        <v>1.1495206059888745</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>0.14299999999999999</v>
       </c>
-      <c r="C3" s="2">
-        <v>21.9</v>
-      </c>
-      <c r="D3" s="5">
-        <f t="shared" ref="D3:D14" si="1">B3*C3*31.56</f>
-        <v>98.83645199999998</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="C3" s="1">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="D3" s="8">
+        <f t="shared" ref="D3:D12" si="1">B3*100000*(C3/(365*24*3600)*10000)</f>
+        <v>91.143455098934552</v>
+      </c>
+      <c r="E3" s="15">
         <v>0.23300000000000001</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>17.36</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>128.38999999999999</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H14" si="2">G3/F3/E3</f>
+      <c r="H3" s="9">
+        <f t="shared" ref="H3:H12" si="2">G3/F3/E3</f>
         <v>31.741361919265835</v>
       </c>
-      <c r="I3" s="5">
-        <f t="shared" ref="I3:I14" si="3">E3/B3</f>
+      <c r="I3" s="18">
+        <f t="shared" ref="I3:I12" si="3">E3/B3</f>
         <v>1.6293706293706296</v>
       </c>
-      <c r="J3" s="5">
-        <f t="shared" ref="J3:J14" si="4">F3/C3</f>
-        <v>0.79269406392694064</v>
-      </c>
-      <c r="K3" s="5">
-        <f t="shared" ref="K3:K14" si="5">G3/D3</f>
-        <v>1.2990146590854963</v>
+      <c r="J3" s="8">
+        <f t="shared" ref="J3:J12" si="4">F3/C3</f>
+        <v>0.86368159203980088</v>
+      </c>
+      <c r="K3" s="21">
+        <f t="shared" ref="K3:K12" si="5">G3/D3</f>
+        <v>1.4086584698883204</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1">
         <v>0.39</v>
       </c>
-      <c r="C4" s="2">
-        <v>9.51</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="C4" s="1">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="D4" s="8">
         <f t="shared" si="1"/>
-        <v>117.05288399999999</v>
-      </c>
-      <c r="E4" s="2">
+        <v>107.83866057838662</v>
+      </c>
+      <c r="E4" s="15">
         <v>0.39900000000000002</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>5.28</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>66.88</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="9">
         <f t="shared" si="2"/>
         <v>31.746031746031743</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="18">
         <f t="shared" si="3"/>
         <v>1.023076923076923</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="8">
         <f t="shared" si="4"/>
-        <v>0.55520504731861198</v>
-      </c>
-      <c r="K4" s="5">
+        <v>0.60550458715596334</v>
+      </c>
+      <c r="K4" s="21">
         <f t="shared" si="5"/>
-        <v>0.57136567433913032</v>
+        <v>0.62018574453069852</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
         <v>0.34899999999999998</v>
       </c>
-      <c r="C5" s="2">
-        <v>8.9</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="C5" s="1">
+        <v>8.16</v>
+      </c>
+      <c r="D5" s="8">
         <f t="shared" si="1"/>
-        <v>98.028515999999996</v>
-      </c>
-      <c r="E5" s="2">
+        <v>90.304414003044144</v>
+      </c>
+      <c r="E5" s="15">
         <v>0.33600000000000002</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>5.33</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>56.78</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="9">
         <f t="shared" si="2"/>
         <v>31.705083534351825</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="18">
         <f t="shared" si="3"/>
         <v>0.9627507163323783</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="8">
         <f t="shared" si="4"/>
-        <v>0.59887640449438195</v>
-      </c>
-      <c r="K5" s="5">
+        <v>0.65318627450980393</v>
+      </c>
+      <c r="K5" s="21">
         <f t="shared" si="5"/>
-        <v>0.57921921413152888</v>
+        <v>0.62876217765042974</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2">
+      <c r="A6" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="23">
         <v>0.39900000000000002</v>
       </c>
-      <c r="C6" s="2">
-        <v>6.98</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="C6" s="23">
+        <v>6.28</v>
+      </c>
+      <c r="D6" s="24">
         <f t="shared" si="1"/>
-        <v>87.895231200000012</v>
-      </c>
-      <c r="E6" s="2">
+        <v>79.455859969558603</v>
+      </c>
+      <c r="E6" s="15">
         <v>0.48299999999999998</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>5.75</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>87.95</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="9">
         <f t="shared" si="2"/>
         <v>31.668016923215415</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="18">
         <f t="shared" si="3"/>
         <v>1.2105263157894737</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="8">
         <f t="shared" si="4"/>
-        <v>0.82378223495701997</v>
-      </c>
-      <c r="K6" s="5">
+        <v>0.91560509554140124</v>
+      </c>
+      <c r="K6" s="21">
         <f t="shared" si="5"/>
-        <v>1.0006231145791671</v>
+        <v>1.1069038839136056</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2">
+      <c r="A7" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="23">
         <v>0.67700000000000005</v>
       </c>
-      <c r="C7" s="2">
-        <v>2.58</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="C7" s="23">
+        <v>2.5</v>
+      </c>
+      <c r="D7" s="24">
         <f t="shared" si="1"/>
-        <v>55.1245896</v>
-      </c>
-      <c r="E7" s="2">
+        <v>53.668822932521564</v>
+      </c>
+      <c r="E7" s="15">
         <v>0.57499999999999996</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>2.97</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>54.13</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="9">
         <f t="shared" si="2"/>
         <v>31.69667691406822</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="18">
         <f t="shared" si="3"/>
         <v>0.84933530280649916</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="8">
         <f t="shared" si="4"/>
-        <v>1.1511627906976745</v>
-      </c>
-      <c r="K7" s="5">
+        <v>1.1880000000000002</v>
+      </c>
+      <c r="K7" s="21">
         <f t="shared" si="5"/>
-        <v>0.98195742395150643</v>
+        <v>1.0085930162481536</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="A8" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="23">
+        <v>0.59</v>
+      </c>
+      <c r="C8" s="23">
+        <v>2.31</v>
+      </c>
+      <c r="D8" s="24">
         <f t="shared" si="1"/>
-        <v>44.714207999999999</v>
-      </c>
-      <c r="E8" s="2">
+        <v>43.217275494672755</v>
+      </c>
+      <c r="E8" s="15">
         <v>0.57499999999999996</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>2.97</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>54.13</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="9">
         <f t="shared" si="2"/>
         <v>31.69667691406822</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="18">
         <f t="shared" si="3"/>
-        <v>1.0267857142857142</v>
-      </c>
-      <c r="J8" s="5">
+        <v>0.97457627118644063</v>
+      </c>
+      <c r="J8" s="8">
         <f t="shared" si="4"/>
-        <v>1.173913043478261</v>
-      </c>
-      <c r="K8" s="5">
+        <v>1.2857142857142858</v>
+      </c>
+      <c r="K8" s="21">
         <f t="shared" si="5"/>
-        <v>1.2105771838785562</v>
+        <v>1.2525083865287256</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="2">
+      <c r="A9" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="23">
         <v>0.51</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="23">
         <v>2.99</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="24">
         <f t="shared" si="1"/>
-        <v>48.125844000000001</v>
-      </c>
-      <c r="E9" s="2">
+        <v>48.354261796042621</v>
+      </c>
+      <c r="E9" s="15">
         <v>0.46800000000000003</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>4.84</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>71.78</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="9">
         <f t="shared" si="2"/>
         <v>31.689270325633963</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="18">
         <f t="shared" si="3"/>
         <v>0.91764705882352948</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="8">
         <f t="shared" si="4"/>
         <v>1.6187290969899664</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="21">
         <f t="shared" si="5"/>
-        <v>1.4915063099984283</v>
+        <v>1.4844606728310052</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="2">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1">
         <v>0.88100000000000001</v>
       </c>
-      <c r="C10" s="2">
-        <v>2.1</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="C10" s="1">
+        <v>1.93</v>
+      </c>
+      <c r="D10" s="8">
         <f t="shared" si="1"/>
-        <v>58.389156</v>
-      </c>
-      <c r="E10" s="2">
+        <v>53.917110603754438</v>
+      </c>
+      <c r="E10" s="15">
         <v>0.81699999999999995</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>1.73</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>44.83</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="9">
         <f t="shared" si="2"/>
         <v>31.717619091417212</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="18">
         <f t="shared" si="3"/>
         <v>0.92735527809307594</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="8">
         <f t="shared" si="4"/>
-        <v>0.82380952380952377</v>
-      </c>
-      <c r="K10" s="5">
+        <v>0.89637305699481862</v>
+      </c>
+      <c r="K10" s="21">
         <f t="shared" si="5"/>
-        <v>0.76777955139478293</v>
+        <v>0.8314614692442055</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="2">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1">
         <v>0.87</v>
       </c>
-      <c r="C11" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="D11" s="5">
+      <c r="C11" s="1">
+        <v>3.21</v>
+      </c>
+      <c r="D11" s="8">
         <f t="shared" si="1"/>
-        <v>96.100200000000001</v>
-      </c>
-      <c r="E11" s="2">
+        <v>88.555936073059357</v>
+      </c>
+      <c r="E11" s="15">
         <v>0.69</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>2.57</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>56.16</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="9">
         <f t="shared" si="2"/>
         <v>31.669768228726106</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="18">
         <f t="shared" si="3"/>
         <v>0.79310344827586199</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="8">
         <f t="shared" si="4"/>
-        <v>0.73428571428571421</v>
-      </c>
-      <c r="K11" s="5">
+        <v>0.80062305295950154</v>
+      </c>
+      <c r="K11" s="21">
         <f t="shared" si="5"/>
-        <v>0.58439004289273067</v>
+        <v>0.63417544311956175</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="2">
+      <c r="A12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="5">
         <v>1.012</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="5">
+        <v>2.29</v>
+      </c>
+      <c r="D12" s="10">
+        <f t="shared" si="1"/>
+        <v>73.486808726534761</v>
+      </c>
+      <c r="E12" s="16">
+        <v>0.77</v>
+      </c>
+      <c r="F12" s="5">
         <v>2.5</v>
       </c>
-      <c r="D12" s="5">
-        <f t="shared" si="1"/>
-        <v>79.846800000000002</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="F12" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="G12" s="2">
+      <c r="G12" s="5">
         <v>61.16</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="11">
         <f t="shared" si="2"/>
         <v>31.771428571428569</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="19">
         <f t="shared" si="3"/>
         <v>0.76086956521739135</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="10">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="K12" s="5">
+        <v>1.0917030567685588</v>
+      </c>
+      <c r="K12" s="22">
         <f t="shared" si="5"/>
-        <v>0.76596682647269521</v>
+        <v>0.83225821150560075</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="3">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="C13" s="3">
-        <v>68</v>
-      </c>
-      <c r="D13" s="5">
-        <f t="shared" si="1"/>
-        <v>126.61871999999998</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.104</v>
-      </c>
-      <c r="F13" s="3">
-        <v>80.53</v>
-      </c>
-      <c r="G13" s="3">
-        <v>265.69</v>
-      </c>
-      <c r="H13" s="11">
-        <f t="shared" si="2"/>
-        <v>31.723724555588458</v>
-      </c>
-      <c r="I13" s="12">
-        <f t="shared" si="3"/>
-        <v>1.7627118644067796</v>
-      </c>
-      <c r="J13" s="12">
-        <f t="shared" si="4"/>
-        <v>1.184264705882353</v>
-      </c>
-      <c r="K13" s="12">
-        <f t="shared" si="5"/>
-        <v>2.0983469111044561</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="4">
-        <v>0.21</v>
-      </c>
-      <c r="C14" s="4">
-        <v>6</v>
-      </c>
-      <c r="D14" s="5">
-        <f t="shared" si="1"/>
-        <v>39.765599999999999</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0.28299999999999997</v>
-      </c>
-      <c r="F14" s="4">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="G14" s="4">
-        <v>83.46</v>
-      </c>
-      <c r="H14" s="11">
-        <f t="shared" si="2"/>
-        <v>31.710931266385497</v>
-      </c>
-      <c r="I14" s="12">
-        <f t="shared" si="3"/>
-        <v>1.3476190476190475</v>
-      </c>
-      <c r="J14" s="12">
-        <f t="shared" si="4"/>
-        <v>1.55</v>
-      </c>
-      <c r="K14" s="12">
-        <f t="shared" si="5"/>
-        <v>2.0987989619168324</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D16" s="5">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="12">
         <f>D11/D7</f>
-        <v>1.7433272646078801</v>
-      </c>
-      <c r="G16" s="5">
+        <v>1.6500443131462332</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="12">
         <f>G11/G7</f>
         <v>1.037502309255496</v>
       </c>
-    </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D17" s="5">
+      <c r="H14" s="9"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="12">
         <f>AVERAGE(D2:D12)</f>
-        <v>81.867156436363629</v>
-      </c>
-      <c r="G17">
+        <v>76.10081984225819</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="13">
         <f>AVERAGE(G2:G12)</f>
         <v>73.216363636363639</v>
       </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
